--- a/Link Triggered Commercial.xlsx
+++ b/Link Triggered Commercial.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69D1AF-58D7-44AA-9BD5-CF9B6646D8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB63083-73EA-4AA3-A97D-65ECFC7089D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="58">
   <si>
     <t>Link Triggered</t>
   </si>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,8 +1569,8 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1593,10 +1593,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1605,7 +1605,7 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>18.75</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1631,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>21.05</v>
+        <v>20.2</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1671,7 +1671,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1749,7 +1749,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1775,7 +1775,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1827,7 +1827,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1879,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1891,7 +1891,7 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>22.73</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1931,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>

--- a/Link Triggered Commercial.xlsx
+++ b/Link Triggered Commercial.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB63083-73EA-4AA3-A97D-65ECFC7089D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF17B8-A62C-4ADC-99CE-130950F4455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1443,10 +1443,10 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
@@ -1455,7 +1455,7 @@
     <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1593,10 +1593,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1605,7 +1605,7 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>17.649999999999999</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1631,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>20.2</v>
+        <v>18.18</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1671,7 +1671,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>18.18</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1749,7 +1749,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1775,10 +1775,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1801,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1827,10 +1827,10 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1879,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1891,7 +1891,7 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <v>22.73</v>
+        <v>21.28</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1931,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1957,7 +1957,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>

--- a/Link Triggered Commercial.xlsx
+++ b/Link Triggered Commercial.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF17B8-A62C-4ADC-99CE-130950F4455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57203893-E2F7-4DAF-8054-BD9F46D0687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1443,10 +1443,10 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
@@ -1593,10 +1593,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1605,7 +1605,7 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>17.239999999999998</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1631,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>18.18</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1671,7 +1671,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>16.670000000000002</v>
+        <v>15.87</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1697,10 +1697,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1749,10 +1749,10 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1775,10 +1775,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1801,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1827,7 +1827,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1879,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1891,7 +1891,7 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <v>21.28</v>
+        <v>20.83</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1931,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1957,7 +1957,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>

--- a/Link Triggered Commercial.xlsx
+++ b/Link Triggered Commercial.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57203893-E2F7-4DAF-8054-BD9F46D0687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB1D586-EA6A-42D3-8CAB-4366E0DF75FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,7 +1596,7 @@
         <v>179</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         <v>119</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1801,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>2</v>
